--- a/biology/Botanique/Solanum_bonariense/Solanum_bonariense.xlsx
+++ b/biology/Botanique/Solanum_bonariense/Solanum_bonariense.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Solanum bonariense, la morelle de Buenos Aires, est une espèce de plantes dicotylédones de la famille des Solanaceae, sous-famille des Solanoideae, originaire d'Amérique du Sud.
 Ce sont des arbustes de moins de 2 m de haut, aux fleurs blanches. Parfois cultivée comme plante ornementale, c'est une plante toxique, provoquant une dégénérescence cérébelleuse chez le bétail qui la broute dans sa région d'origine.
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon Catalogue of Life                                   (9 août 2018)[2] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (9 août 2018) :
 Solanum arborescens Moench
 Solanum astroites Jacquin
 Solanum baccatum hort. ex Steud.
@@ -525,8 +542,43 @@
 Solanum grandiflorum hort. ex Steud.
 Solanum regnelii Hiern
 Solanum saponaceum var. uruguense Griseb.
-Liste des variétés
-Selon Tropicos                                           (9 août 2018)[3] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Solanum_bonariense</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Solanum_bonariense</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (9 août 2018) :
 Solanum var. paraguariense (Chodat) Chodat
 </t>
         </is>
